--- a/processed_data/nominees_data_scraped.xlsx
+++ b/processed_data/nominees_data_scraped.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/antony-blinken/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/antony-blinken/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -414,7 +414,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/alejandro-mayorkas/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/alejandro-mayorkas/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -436,7 +436,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/avril-haines/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/avril-haines/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/linda-thomas-greenfield/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/linda-thomas-greenfield/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/jake-sullivan/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/jake-sullivan/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.com/the-administration/nominees-and-appointees/john-kerry/</t>
+          <t>https://buildbackbetter.gov/the-administration/nominees-and-appointees/john-kerry/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
